--- a/target/test-classes/cases_v9.xlsx
+++ b/target/test-classes/cases_v9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="2">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -1272,10 +1272,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="22.875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="22.625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="84.5" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="84.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1374,16 +1374,16 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="9" defaultRowHeight="32"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.25" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="27.875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="20.875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="93.375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="34.625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="34.625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="3" width="64.25" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="67.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="3" width="38.25" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="69.5" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="18.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="93.375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="34.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="64.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="38.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="69.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" r="1" spans="1:10">
@@ -1435,7 +1435,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>27</v>
@@ -1467,7 +1467,7 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>32</v>
@@ -1801,12 +1801,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="19.75" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="2" width="43.625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="34.25" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="28.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="25.75" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="27.875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="43.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="34.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="28.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/target/test-classes/cases_v9.xlsx
+++ b/target/test-classes/cases_v9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="2">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
